--- a/analysis/5.1/td_0.06s.xlsx
+++ b/analysis/5.1/td_0.06s.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
@@ -172,13 +172,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B7">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C7">
         <v>0.060000000000000005</v>
       </c>
       <c r="D7">
-        <v>270.89392000000294</v>
+        <v>388.25403999999952</v>
       </c>
     </row>
     <row r="8">
@@ -186,13 +186,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B8">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8">
         <v>0.060000000000000005</v>
       </c>
       <c r="D8">
-        <v>239.90308571428361</v>
+        <v>270.89392000000294</v>
       </c>
     </row>
     <row r="9">
@@ -200,13 +200,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B9">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C9">
         <v>0.060000000000000005</v>
       </c>
       <c r="D9">
-        <v>232.28840000000002</v>
+        <v>239.90308571428361</v>
       </c>
     </row>
     <row r="10">
@@ -214,27 +214,27 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B10">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C10">
         <v>0.060000000000000005</v>
       </c>
       <c r="D10">
-        <v>266.55348000000197</v>
+        <v>232.28840000000002</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B11">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C11">
         <v>0.060000000000000005</v>
       </c>
       <c r="D11">
-        <v>256.54140000000086</v>
+        <v>266.55348000000197</v>
       </c>
     </row>
     <row r="12">
@@ -242,13 +242,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B12">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C12">
         <v>0.060000000000000005</v>
       </c>
       <c r="D12">
-        <v>248.4915600000013</v>
+        <v>256.54140000000086</v>
       </c>
     </row>
     <row r="13">
@@ -256,13 +256,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B13">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C13">
         <v>0.060000000000000005</v>
       </c>
       <c r="D13">
-        <v>276.51244000000025</v>
+        <v>248.4915600000013</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B14">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C14">
         <v>0.060000000000000005</v>
       </c>
       <c r="D14">
-        <v>277.87231999999915</v>
+        <v>276.51244000000025</v>
       </c>
     </row>
     <row r="15">
@@ -284,13 +284,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B15">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C15">
         <v>0.060000000000000005</v>
       </c>
       <c r="D15">
-        <v>278.93220000000258</v>
+        <v>277.87231999999915</v>
       </c>
     </row>
     <row r="16">
@@ -298,27 +298,27 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B16">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C16">
         <v>0.060000000000000005</v>
       </c>
       <c r="D16">
-        <v>278.79204000000266</v>
+        <v>278.93220000000258</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B17">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C17">
         <v>0.060000000000000005</v>
       </c>
       <c r="D17">
-        <v>279.49144000000183</v>
+        <v>278.79204000000266</v>
       </c>
     </row>
     <row r="18">
@@ -326,13 +326,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B18">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C18">
         <v>0.060000000000000005</v>
       </c>
       <c r="D18">
-        <v>219.59253333333118</v>
+        <v>279.49144000000183</v>
       </c>
     </row>
     <row r="19">
@@ -340,13 +340,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B19">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C19">
         <v>0.060000000000000005</v>
       </c>
       <c r="D19">
-        <v>276.23119999999972</v>
+        <v>219.59253333333118</v>
       </c>
     </row>
     <row r="20">
@@ -354,13 +354,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B20">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C20">
         <v>0.060000000000000005</v>
       </c>
       <c r="D20">
-        <v>248.29008000000306</v>
+        <v>276.23119999999972</v>
       </c>
     </row>
     <row r="21">
@@ -368,13 +368,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B21">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C21">
         <v>0.060000000000000005</v>
       </c>
       <c r="D21">
-        <v>277.390960000002</v>
+        <v>248.29008000000306</v>
       </c>
     </row>
     <row r="22">
@@ -382,27 +382,27 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B22">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C22">
         <v>0.060000000000000005</v>
       </c>
       <c r="D22">
-        <v>276.57084000000094</v>
+        <v>277.390960000002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B23">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C23">
         <v>0.060000000000000005</v>
       </c>
       <c r="D23">
-        <v>231.62080000000068</v>
+        <v>276.57084000000094</v>
       </c>
     </row>
     <row r="24">
@@ -410,13 +410,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B24">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C24">
         <v>0.060000000000000005</v>
       </c>
       <c r="D24">
-        <v>214.57231999999766</v>
+        <v>231.62080000000068</v>
       </c>
     </row>
     <row r="25">
@@ -424,13 +424,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B25">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C25">
         <v>0.060000000000000005</v>
       </c>
       <c r="D25">
-        <v>240.45720000000267</v>
+        <v>214.57231999999766</v>
       </c>
     </row>
     <row r="26">
@@ -438,13 +438,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B26">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C26">
         <v>0.060000000000000005</v>
       </c>
       <c r="D26">
-        <v>275.12992000000025</v>
+        <v>240.45720000000267</v>
       </c>
     </row>
     <row r="27">
@@ -452,13 +452,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B27">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C27">
         <v>0.060000000000000005</v>
       </c>
       <c r="D27">
-        <v>275.34979999999922</v>
+        <v>275.12992000000025</v>
       </c>
     </row>
     <row r="28">
@@ -466,13 +466,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B28">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C28">
         <v>0.060000000000000005</v>
       </c>
       <c r="D28">
-        <v>240.55773333333491</v>
+        <v>275.34979999999922</v>
       </c>
     </row>
     <row r="29">
@@ -480,27 +480,27 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B29">
-        <v>6.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C29">
         <v>0.060000000000000005</v>
       </c>
       <c r="D29">
-        <v>244.90860000000038</v>
+        <v>240.55773333333491</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B30">
-        <v>0.10000000000000001</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C30">
         <v>0.060000000000000005</v>
       </c>
       <c r="D30">
-        <v>213.51740000000254</v>
+        <v>244.90860000000038</v>
       </c>
     </row>
     <row r="31">
@@ -508,13 +508,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B31">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C31">
         <v>0.060000000000000005</v>
       </c>
       <c r="D31">
-        <v>201.39240000000532</v>
+        <v>213.51740000000254</v>
       </c>
     </row>
     <row r="32">
@@ -522,13 +522,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B32">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C32">
         <v>0.060000000000000005</v>
       </c>
       <c r="D32">
-        <v>195.38796000000067</v>
+        <v>201.39240000000532</v>
       </c>
     </row>
     <row r="33">
@@ -536,13 +536,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B33">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C33">
         <v>0.060000000000000005</v>
       </c>
       <c r="D33">
-        <v>195.30788000000294</v>
+        <v>195.38796000000067</v>
       </c>
     </row>
     <row r="34">
@@ -550,13 +550,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B34">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C34">
         <v>0.060000000000000005</v>
       </c>
       <c r="D34">
-        <v>199.55880000000153</v>
+        <v>195.30788000000294</v>
       </c>
     </row>
     <row r="35">
@@ -564,27 +564,27 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B35">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C35">
         <v>0.060000000000000005</v>
       </c>
       <c r="D35">
-        <v>245.38764000000083</v>
+        <v>199.55880000000153</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B36">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C36">
         <v>0.060000000000000005</v>
       </c>
       <c r="D36">
-        <v>200.55440000000004</v>
+        <v>245.38764000000083</v>
       </c>
     </row>
     <row r="37">
@@ -592,13 +592,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B37">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C37">
         <v>0.060000000000000005</v>
       </c>
       <c r="D37">
-        <v>194.60707999999886</v>
+        <v>200.55440000000004</v>
       </c>
     </row>
     <row r="38">
@@ -606,13 +606,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B38">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C38">
         <v>0.060000000000000005</v>
       </c>
       <c r="D38">
-        <v>194.7670000000011</v>
+        <v>194.60707999999886</v>
       </c>
     </row>
     <row r="39">
@@ -620,13 +620,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B39">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C39">
         <v>0.060000000000000005</v>
       </c>
       <c r="D39">
-        <v>225.58775999999744</v>
+        <v>194.7670000000011</v>
       </c>
     </row>
     <row r="40">
@@ -634,13 +634,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B40">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C40">
         <v>0.060000000000000005</v>
       </c>
       <c r="D40">
-        <v>227.45599999999223</v>
+        <v>225.58775999999744</v>
       </c>
     </row>
     <row r="41">
@@ -648,27 +648,27 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B41">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C41">
         <v>0.060000000000000005</v>
       </c>
       <c r="D41">
-        <v>209.63168888888785</v>
+        <v>227.45599999999223</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B42">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C42">
         <v>0.060000000000000005</v>
       </c>
       <c r="D42">
-        <v>199.51984999999979</v>
+        <v>209.63168888888785</v>
       </c>
     </row>
     <row r="43">
@@ -676,13 +676,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B43">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C43">
         <v>0.060000000000000005</v>
       </c>
       <c r="D43">
-        <v>194.2061600000026</v>
+        <v>199.51984999999979</v>
       </c>
     </row>
     <row r="44">
@@ -690,13 +690,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B44">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C44">
         <v>0.060000000000000005</v>
       </c>
       <c r="D44">
-        <v>198.83959999999857</v>
+        <v>194.2061600000026</v>
       </c>
     </row>
     <row r="45">
@@ -704,13 +704,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B45">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C45">
         <v>0.060000000000000005</v>
       </c>
       <c r="D45">
-        <v>199.42533333333148</v>
+        <v>198.83959999999857</v>
       </c>
     </row>
     <row r="46">
@@ -718,13 +718,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B46">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C46">
         <v>0.060000000000000005</v>
       </c>
       <c r="D46">
-        <v>198.87617142857104</v>
+        <v>199.42533333333148</v>
       </c>
     </row>
     <row r="47">
@@ -732,27 +732,27 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B47">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C47">
         <v>0.060000000000000005</v>
       </c>
       <c r="D47">
-        <v>198.86742857142988</v>
+        <v>198.87617142857104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B48">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C48">
         <v>0.060000000000000005</v>
       </c>
       <c r="D48">
-        <v>198.59951999999916</v>
+        <v>198.86742857142988</v>
       </c>
     </row>
     <row r="49">
@@ -760,13 +760,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B49">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C49">
         <v>0.060000000000000005</v>
       </c>
       <c r="D49">
-        <v>198.58343999999937</v>
+        <v>198.59951999999916</v>
       </c>
     </row>
     <row r="50">
@@ -774,13 +774,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B50">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C50">
         <v>0.060000000000000005</v>
       </c>
       <c r="D50">
-        <v>198.6265000000007</v>
+        <v>198.58343999999937</v>
       </c>
     </row>
     <row r="51">
@@ -788,13 +788,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B51">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C51">
         <v>0.060000000000000005</v>
       </c>
       <c r="D51">
-        <v>198.50102857142747</v>
+        <v>198.6265000000007</v>
       </c>
     </row>
     <row r="52">
@@ -802,13 +802,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B52">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C52">
         <v>0.060000000000000005</v>
       </c>
       <c r="D52">
-        <v>198.86120000000039</v>
+        <v>198.50102857142747</v>
       </c>
     </row>
     <row r="53">
@@ -816,27 +816,27 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B53">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C53">
         <v>0.060000000000000005</v>
       </c>
       <c r="D53">
-        <v>193.70524000000188</v>
+        <v>198.86120000000039</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>110.09999999999999</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B54">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C54">
         <v>0.060000000000000005</v>
       </c>
       <c r="D54">
-        <v>197.57070000000073</v>
+        <v>193.70524000000188</v>
       </c>
     </row>
     <row r="55">
@@ -844,13 +844,13 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B55">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C55">
         <v>0.060000000000000005</v>
       </c>
       <c r="D55">
-        <v>192.26492000000204</v>
+        <v>197.57070000000073</v>
       </c>
     </row>
     <row r="56">
@@ -858,13 +858,13 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B56">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C56">
         <v>0.060000000000000005</v>
       </c>
       <c r="D56">
-        <v>192.54487999999873</v>
+        <v>192.26492000000204</v>
       </c>
     </row>
     <row r="57">
@@ -872,13 +872,13 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B57">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C57">
         <v>0.060000000000000005</v>
       </c>
       <c r="D57">
-        <v>192.70480000000097</v>
+        <v>192.54487999999873</v>
       </c>
     </row>
     <row r="58">
@@ -886,27 +886,27 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B58">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C58">
         <v>0.060000000000000005</v>
       </c>
       <c r="D58">
-        <v>192.68476000000209</v>
+        <v>192.70480000000097</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>120.09999999999999</v>
+        <v>110.09999999999999</v>
       </c>
       <c r="B59">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C59">
         <v>0.060000000000000005</v>
       </c>
       <c r="D59">
-        <v>188.39847999999972</v>
+        <v>192.68476000000209</v>
       </c>
     </row>
     <row r="60">
@@ -914,13 +914,13 @@
         <v>120.09999999999999</v>
       </c>
       <c r="B60">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C60">
         <v>0.060000000000000005</v>
       </c>
       <c r="D60">
-        <v>187.81173333333294</v>
+        <v>188.39847999999972</v>
       </c>
     </row>
     <row r="61">
@@ -928,12 +928,26 @@
         <v>120.09999999999999</v>
       </c>
       <c r="B61">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C61">
         <v>0.060000000000000005</v>
       </c>
       <c r="D61">
+        <v>187.81173333333294</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>120.09999999999999</v>
+      </c>
+      <c r="B62">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="C62">
+        <v>0.060000000000000005</v>
+      </c>
+      <c r="D62">
         <v>188.42538461538459</v>
       </c>
     </row>
